--- a/Datos/Database by set/Set with text box/Xlsx sets/Ninth Edition Promos (P9ED).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Ninth Edition Promos (P9ED).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,84 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Force of Nature</t>
+          <t>('Force of Nature', ['{2}{G}{G}{G}{G}', 'Creature — Elemental', 'Trample (This creature can deal excess combat damage to the player or planeswalker it’s attacking.)', 'At the beginning of your upkeep, Force of Nature deals 8 damage to you unless you pay {G}{G}{G}{G}.', '8/8'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{G}{G}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Trample (This creature can deal excess combat damage to the player or planeswalker it’s attacking.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>At the beginning of your upkeep, Force of Nature deals 8 damage to you unless you pay {G}{G}{G}{G}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>8/8</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Шиванский дракон</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{4}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Существо — Дракон</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Полет (Это существо может быть блокировано только существом со способностью полета).</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>{R}: Шиванский дракон получает +1/+0 до конца хода.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>5/5</t>
+          <t>('Шиванский дракон', ['{4}{R}{R}', 'Существо — Дракон', 'Полет (Это существо может быть блокировано только существом со способностью полета).', '{R}: Шиванский дракон получает +1/+0 до конца хода.', '5/5'])</t>
         </is>
       </c>
     </row>
